--- a/data_sourcing/Quartier-Quartett.xlsx
+++ b/data_sourcing/Quartier-Quartett.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
     <t> </t>
   </si>
@@ -103,6 +103,9 @@
   </si>
   <si>
     <t>P./km²</t>
+  </si>
+  <si>
+    <t>lower</t>
   </si>
   <si>
     <t>Kleinkinder</t>
@@ -781,7 +784,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col bestFit="1" min="1" max="1" width="48.171875"/>
+    <col customWidth="1" min="1" max="1" width="20.8515625"/>
     <col bestFit="1" min="2" max="3" width="14.04296875"/>
     <col bestFit="1" min="4" max="4" width="12.4609375"/>
     <col bestFit="1" min="5" max="7" width="11.98046875"/>
@@ -972,7 +975,7 @@
         <v>29</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D3" s="7">
         <v>57</v>
@@ -1046,10 +1049,10 @@
     </row>
     <row r="4" ht="14.25">
       <c r="A4" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>27</v>
@@ -1126,10 +1129,10 @@
     </row>
     <row r="5" ht="14.25">
       <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>32</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>27</v>
@@ -1206,10 +1209,10 @@
     </row>
     <row r="6" ht="14.25">
       <c r="A6" s="3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>27</v>
@@ -1286,10 +1289,10 @@
     </row>
     <row r="7" ht="14.25">
       <c r="A7" s="3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>27</v>
@@ -1366,11 +1369,11 @@
     </row>
     <row r="8" ht="14.25">
       <c r="A8" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D8" s="7">
         <v>36.899999999999999</v>
@@ -1444,7 +1447,7 @@
     </row>
     <row r="9" ht="14.25">
       <c r="A9" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="9"/>
       <c r="C9" s="4" t="s">
@@ -1522,7 +1525,7 @@
     </row>
     <row r="10" ht="14.25">
       <c r="A10" s="3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4" t="s">
@@ -1600,7 +1603,7 @@
     </row>
     <row r="11" ht="14.25">
       <c r="A11" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4" t="s">
@@ -1678,11 +1681,11 @@
     </row>
     <row r="12" ht="14.25">
       <c r="A12" s="3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B12" s="10"/>
       <c r="C12" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D12" s="8">
         <v>0.25</v>
@@ -1756,13 +1759,13 @@
     </row>
     <row r="13" ht="14.25">
       <c r="A13" s="3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D13" s="8">
         <v>5.4500000000000002</v>
@@ -1836,7 +1839,7 @@
     </row>
     <row r="14" ht="14.25">
       <c r="A14" s="3" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B14" s="8"/>
       <c r="C14" s="4" t="s">
@@ -1914,7 +1917,7 @@
     </row>
     <row r="15" ht="16.5">
       <c r="A15" s="3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B15" s="8"/>
       <c r="C15" s="4" t="s">
@@ -1992,7 +1995,7 @@
     </row>
     <row r="16" ht="16.5">
       <c r="A16" s="3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B16" s="8"/>
       <c r="C16" s="4" t="s">
@@ -2070,10 +2073,10 @@
     </row>
     <row r="17" ht="16.5">
       <c r="A17" s="3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C17" s="4" t="s">
         <v>27</v>
@@ -2150,7 +2153,7 @@
     </row>
     <row r="18" ht="16.5">
       <c r="A18" s="9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="4" t="s">
